--- a/StructureDefinition-ext-R5-Transport.xlsx
+++ b/StructureDefinition-ext-R5-Transport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1434,7 +1434,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:value.extension:valueCodeableReference.extension:concept.id</t>
@@ -1464,7 +1464,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-Transport.xlsx
+++ b/StructureDefinition-ext-R5-Transport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16124" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16124" uniqueCount="968">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition)
 </t>
   </si>
   <si>
@@ -471,7 +471,7 @@
     <t>Extension.extension:basedOn.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Transport|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Transport|Basic)
 </t>
   </si>
   <si>
@@ -683,15 +683,6 @@
     <t>Extension.extension:priority.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The priority of a transport (may affect service level applied to the transport).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-request-priority-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -848,7 +839,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
 </t>
   </si>
   <si>
@@ -976,7 +967,7 @@
     <t>Extension.extension:requester.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1010,15 +1001,6 @@
     <t>Extension.extension:performerType.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The type(s) of transport performers allowed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-performer-role-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:owner</t>
   </si>
   <si>
@@ -1052,7 +1034,7 @@
     <t>Extension.extension:owner.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1086,7 +1068,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -1120,7 +1102,7 @@
     <t>Extension.extension:insurance.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Coverage|0.0.1-snapshot-3|Coverage|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ClaimResponse|0.0.1-snapshot-3|ClaimResponse|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Coverage|Coverage|http://hl7.org/fhir/5.0/StructureDefinition/profile-ClaimResponse|ClaimResponse)
 </t>
   </si>
   <si>
@@ -1191,7 +1173,7 @@
     <t>Extension.extension:relevantHistory.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Provenance|0.0.1-snapshot-3|Provenance|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Provenance|Provenance)
 </t>
   </si>
   <si>
@@ -1329,7 +1311,7 @@
     <t>Extension.extension:restriction.extension:recipient.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1517,8 +1499,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:value.extension:valueCodeableReference.extension:concept.id</t>
@@ -1548,8 +1529,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:value.extension:valueCodeableReference.extension:reference.id</t>
@@ -1665,7 +1645,7 @@
     <t>Extension.extension:input.extension:value.extension:valueRatioRange.extension:lowNumerator.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1841,12 +1821,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:value.extension:valueAvailability.extension:availableTime.extension:allDay</t>
@@ -2140,9 +2114,6 @@
     <t>Extension.extension:input.extension:value.extension:valueExtendedContactDetail.extension:purpose.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contactentity-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:input.extension:value.extension:valueExtendedContactDetail.extension:name</t>
   </si>
   <si>
@@ -2281,7 +2252,7 @@
     <t>Extension.extension:input.extension:value.extension:valueExtendedContactDetail.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -3347,8 +3318,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -8460,13 +8431,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -8504,13 +8475,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -8535,16 +8506,16 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -8613,7 +8584,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -8716,7 +8687,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -8821,7 +8792,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -8864,7 +8835,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -8926,7 +8897,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -8955,13 +8926,13 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9031,13 +9002,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -9062,14 +9033,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -9138,7 +9109,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -9241,7 +9212,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -9346,7 +9317,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -9389,7 +9360,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -9451,7 +9422,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -9480,10 +9451,10 @@
         <v>87</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9554,13 +9525,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -9585,16 +9556,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9663,7 +9634,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -9766,7 +9737,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -9871,7 +9842,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -9914,7 +9885,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -9976,7 +9947,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -10005,13 +9976,13 @@
         <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10081,13 +10052,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -10112,14 +10083,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -10188,7 +10159,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -10291,7 +10262,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -10396,7 +10367,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -10439,7 +10410,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -10501,7 +10472,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -10530,10 +10501,10 @@
         <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10604,13 +10575,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -10635,14 +10606,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10711,7 +10682,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -10814,7 +10785,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -10919,7 +10890,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -10962,7 +10933,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -11024,7 +10995,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -11050,13 +11021,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11127,13 +11098,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -11158,14 +11129,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -11234,7 +11205,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -11337,7 +11308,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -11442,7 +11413,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -11485,7 +11456,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -11547,7 +11518,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -11573,13 +11544,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11650,13 +11621,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -11681,14 +11652,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -11757,7 +11728,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -11860,7 +11831,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -11965,7 +11936,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -12008,7 +11979,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -12070,7 +12041,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -12096,13 +12067,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12173,13 +12144,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -12204,14 +12175,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -12280,7 +12251,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -12383,7 +12354,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -12488,7 +12459,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -12531,7 +12502,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -12593,7 +12564,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -12619,13 +12590,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12696,13 +12667,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -12727,14 +12698,14 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12803,7 +12774,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>106</v>
@@ -12906,7 +12877,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>108</v>
@@ -13011,7 +12982,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -13054,7 +13025,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -13116,7 +13087,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -13142,13 +13113,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13219,13 +13190,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -13250,14 +13221,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -13326,7 +13297,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -13429,7 +13400,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -13534,7 +13505,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -13577,7 +13548,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -13639,7 +13610,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -13668,10 +13639,10 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13698,13 +13669,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13742,13 +13713,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -13773,16 +13744,16 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13851,7 +13822,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -13954,7 +13925,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -14059,7 +14030,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>114</v>
@@ -14102,7 +14073,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -14164,7 +14135,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -14190,16 +14161,16 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14269,13 +14240,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -14300,14 +14271,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -14376,7 +14347,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>106</v>
@@ -14479,7 +14450,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>108</v>
@@ -14584,7 +14555,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -14627,7 +14598,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -14689,7 +14660,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -14715,13 +14686,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14792,13 +14763,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -14823,14 +14794,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -14899,7 +14870,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>106</v>
@@ -15002,7 +14973,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>108</v>
@@ -15107,7 +15078,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -15150,7 +15121,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -15212,7 +15183,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -15238,13 +15209,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15315,13 +15286,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -15346,14 +15317,14 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -15422,7 +15393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -15525,7 +15496,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -15630,7 +15601,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -15673,7 +15644,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -15735,7 +15706,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>123</v>
@@ -15761,13 +15732,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15838,13 +15809,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -15869,16 +15840,16 @@
         <v>94</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15947,7 +15918,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -16050,7 +16021,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -16155,7 +16126,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>114</v>
@@ -16198,7 +16169,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -16260,7 +16231,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>123</v>
@@ -16286,16 +16257,16 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16365,13 +16336,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>77</v>
@@ -16396,14 +16367,14 @@
         <v>94</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -16472,7 +16443,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>106</v>
@@ -16575,7 +16546,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>108</v>
@@ -16678,13 +16649,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -16709,14 +16680,14 @@
         <v>94</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -16785,10 +16756,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16888,10 +16859,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16993,10 +16964,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17036,7 +17007,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -17098,10 +17069,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17124,13 +17095,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17201,13 +17172,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -17232,16 +17203,16 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -17310,10 +17281,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17413,10 +17384,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17518,10 +17489,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17561,7 +17532,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -17623,10 +17594,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17649,16 +17620,16 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -17728,13 +17699,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -17759,14 +17730,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -17835,10 +17806,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17938,10 +17909,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18043,10 +18014,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18086,7 +18057,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -18148,10 +18119,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18174,13 +18145,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -18251,7 +18222,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>114</v>
@@ -18294,7 +18265,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -18356,7 +18327,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>123</v>
@@ -18382,13 +18353,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -18459,13 +18430,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18490,14 +18461,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -18566,7 +18537,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>106</v>
@@ -18669,7 +18640,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>108</v>
@@ -18680,7 +18651,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>79</v>
@@ -18772,13 +18743,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -18803,16 +18774,16 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -18881,10 +18852,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -18984,10 +18955,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19089,10 +19060,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19132,7 +19103,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -19194,10 +19165,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19223,13 +19194,13 @@
         <v>192</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -19299,13 +19270,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -19330,14 +19301,14 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -19406,10 +19377,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19509,10 +19480,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -19612,13 +19583,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -19643,14 +19614,14 @@
         <v>94</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -19719,10 +19690,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -19822,10 +19793,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19927,13 +19898,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -19958,10 +19929,10 @@
         <v>94</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20032,10 +20003,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20135,10 +20106,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20240,10 +20211,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20283,7 +20254,7 @@
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>77</v>
@@ -20345,10 +20316,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -20374,13 +20345,13 @@
         <v>87</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -20388,7 +20359,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -20450,10 +20421,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -20553,13 +20524,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>77</v>
@@ -20584,14 +20555,14 @@
         <v>94</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>77</v>
@@ -20660,10 +20631,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -20763,10 +20734,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -20868,10 +20839,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -20911,7 +20882,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -20973,10 +20944,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21002,10 +20973,10 @@
         <v>192</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -21076,13 +21047,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -21107,14 +21078,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -21183,10 +21154,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -21286,10 +21257,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -21391,10 +21362,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -21434,7 +21405,7 @@
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>77</v>
@@ -21496,10 +21467,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -21522,13 +21493,13 @@
         <v>77</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -21599,10 +21570,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21642,7 +21613,7 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>77</v>
@@ -21704,10 +21675,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -21730,13 +21701,13 @@
         <v>77</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -21807,13 +21778,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21838,16 +21809,16 @@
         <v>94</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>77</v>
@@ -21916,10 +21887,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22019,10 +21990,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22124,13 +22095,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>77</v>
@@ -22155,10 +22126,10 @@
         <v>94</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -22229,10 +22200,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -22332,10 +22303,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -22437,10 +22408,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -22480,7 +22451,7 @@
       </c>
       <c r="Q183" s="2"/>
       <c r="R183" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>77</v>
@@ -22542,10 +22513,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22571,13 +22542,13 @@
         <v>87</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
@@ -22585,7 +22556,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -22647,10 +22618,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22750,13 +22721,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>77</v>
@@ -22781,16 +22752,16 @@
         <v>94</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>77</v>
@@ -22859,10 +22830,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -22962,10 +22933,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -23067,10 +23038,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -23110,7 +23081,7 @@
       </c>
       <c r="Q189" s="2"/>
       <c r="R189" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="S189" t="s" s="2">
         <v>77</v>
@@ -23172,10 +23143,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -23198,16 +23169,16 @@
         <v>77</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
@@ -23277,13 +23248,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>77</v>
@@ -23308,16 +23279,16 @@
         <v>94</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>77</v>
@@ -23386,10 +23357,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -23489,10 +23460,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -23594,10 +23565,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23637,7 +23608,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>77</v>
@@ -23699,10 +23670,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23725,16 +23696,16 @@
         <v>77</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -23804,13 +23775,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -23835,14 +23806,14 @@
         <v>94</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -23911,10 +23882,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -24014,10 +23985,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -24119,10 +24090,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -24162,7 +24133,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -24224,10 +24195,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -24250,13 +24221,13 @@
         <v>77</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -24327,10 +24298,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -24370,7 +24341,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -24432,10 +24403,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -24458,13 +24429,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -24535,13 +24506,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -24566,14 +24537,14 @@
         <v>94</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -24642,10 +24613,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24745,10 +24716,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24850,13 +24821,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>77</v>
@@ -24881,10 +24852,10 @@
         <v>94</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -24955,10 +24926,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -25058,10 +25029,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -25163,10 +25134,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -25206,7 +25177,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>77</v>
@@ -25268,10 +25239,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -25297,13 +25268,13 @@
         <v>87</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -25311,7 +25282,7 @@
       </c>
       <c r="Q210" s="2"/>
       <c r="R210" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="S210" t="s" s="2">
         <v>77</v>
@@ -25373,10 +25344,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -25476,13 +25447,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>77</v>
@@ -25507,14 +25478,14 @@
         <v>94</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>77</v>
@@ -25583,10 +25554,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -25686,10 +25657,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25789,13 +25760,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>77</v>
@@ -25820,14 +25791,14 @@
         <v>94</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>77</v>
@@ -25896,10 +25867,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25999,10 +25970,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -26104,10 +26075,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -26147,7 +26118,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -26209,10 +26180,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -26238,10 +26209,10 @@
         <v>180</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -26268,13 +26239,13 @@
         <v>77</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>594</v>
+        <v>77</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>595</v>
+        <v>77</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>77</v>
@@ -26312,13 +26283,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>77</v>
@@ -26343,14 +26314,14 @@
         <v>94</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>77</v>
@@ -26419,10 +26390,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -26522,10 +26493,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -26627,10 +26598,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26670,7 +26641,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -26732,10 +26703,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26758,13 +26729,13 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -26835,13 +26806,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>77</v>
@@ -26866,16 +26837,16 @@
         <v>94</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -26944,10 +26915,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -27047,10 +27018,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -27152,10 +27123,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -27195,7 +27166,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -27257,10 +27228,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -27283,16 +27254,16 @@
         <v>77</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
@@ -27362,13 +27333,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>77</v>
@@ -27393,16 +27364,16 @@
         <v>94</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -27471,10 +27442,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -27574,10 +27545,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27679,10 +27650,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -27722,7 +27693,7 @@
       </c>
       <c r="Q233" s="2"/>
       <c r="R233" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="S233" t="s" s="2">
         <v>77</v>
@@ -27784,10 +27755,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -27810,16 +27781,16 @@
         <v>77</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
@@ -27889,10 +27860,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27932,7 +27903,7 @@
       </c>
       <c r="Q235" s="2"/>
       <c r="R235" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="S235" t="s" s="2">
         <v>77</v>
@@ -27994,10 +27965,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -28020,13 +27991,13 @@
         <v>77</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -28097,13 +28068,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>77</v>
@@ -28128,14 +28099,14 @@
         <v>94</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>77</v>
@@ -28204,10 +28175,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -28307,10 +28278,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -28410,13 +28381,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>77</v>
@@ -28441,16 +28412,16 @@
         <v>94</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>77</v>
@@ -28519,10 +28490,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -28622,10 +28593,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28727,10 +28698,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -28770,7 +28741,7 @@
       </c>
       <c r="Q243" s="2"/>
       <c r="R243" t="s" s="2">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="S243" t="s" s="2">
         <v>77</v>
@@ -28832,10 +28803,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28861,13 +28832,13 @@
         <v>87</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
@@ -28937,13 +28908,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D245" t="s" s="2">
         <v>77</v>
@@ -28968,14 +28939,14 @@
         <v>94</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" t="s" s="2">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="P245" t="s" s="2">
         <v>77</v>
@@ -29044,10 +29015,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -29147,10 +29118,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -29252,10 +29223,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -29295,7 +29266,7 @@
       </c>
       <c r="Q248" s="2"/>
       <c r="R248" t="s" s="2">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="S248" t="s" s="2">
         <v>77</v>
@@ -29357,10 +29328,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -29383,13 +29354,13 @@
         <v>77</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -29460,10 +29431,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -29503,7 +29474,7 @@
       </c>
       <c r="Q250" s="2"/>
       <c r="R250" t="s" s="2">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="S250" t="s" s="2">
         <v>77</v>
@@ -29565,10 +29536,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -29591,13 +29562,13 @@
         <v>77</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -29668,10 +29639,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29711,7 +29682,7 @@
       </c>
       <c r="Q252" s="2"/>
       <c r="R252" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="S252" t="s" s="2">
         <v>77</v>
@@ -29773,10 +29744,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -29799,13 +29770,13 @@
         <v>77</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -29876,13 +29847,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D254" t="s" s="2">
         <v>77</v>
@@ -29907,16 +29878,16 @@
         <v>94</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="P254" t="s" s="2">
         <v>77</v>
@@ -29985,10 +29956,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -30088,10 +30059,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -30193,13 +30164,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>77</v>
@@ -30224,10 +30195,10 @@
         <v>94</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -30298,10 +30269,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -30401,10 +30372,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -30506,10 +30477,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -30549,7 +30520,7 @@
       </c>
       <c r="Q260" s="2"/>
       <c r="R260" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S260" t="s" s="2">
         <v>77</v>
@@ -30611,10 +30582,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -30640,13 +30611,13 @@
         <v>87</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="O261" s="2"/>
       <c r="P261" t="s" s="2">
@@ -30654,7 +30625,7 @@
       </c>
       <c r="Q261" s="2"/>
       <c r="R261" t="s" s="2">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="S261" t="s" s="2">
         <v>77</v>
@@ -30716,10 +30687,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -30819,13 +30790,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D263" t="s" s="2">
         <v>77</v>
@@ -30850,16 +30821,16 @@
         <v>94</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="P263" t="s" s="2">
         <v>77</v>
@@ -30928,10 +30899,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -31031,10 +31002,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -31136,10 +31107,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -31179,7 +31150,7 @@
       </c>
       <c r="Q266" s="2"/>
       <c r="R266" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="S266" t="s" s="2">
         <v>77</v>
@@ -31241,10 +31212,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -31270,13 +31241,13 @@
         <v>192</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
@@ -31302,13 +31273,13 @@
         <v>77</v>
       </c>
       <c r="X267" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>594</v>
+        <v>77</v>
       </c>
       <c r="Z267" t="s" s="2">
-        <v>692</v>
+        <v>77</v>
       </c>
       <c r="AA267" t="s" s="2">
         <v>77</v>
@@ -31346,13 +31317,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D268" t="s" s="2">
         <v>77</v>
@@ -31377,16 +31348,16 @@
         <v>94</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="P268" t="s" s="2">
         <v>77</v>
@@ -31455,10 +31426,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -31558,10 +31529,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -31663,10 +31634,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -31706,7 +31677,7 @@
       </c>
       <c r="Q271" s="2"/>
       <c r="R271" t="s" s="2">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="S271" t="s" s="2">
         <v>77</v>
@@ -31768,10 +31739,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -31794,16 +31765,16 @@
         <v>77</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" t="s" s="2">
@@ -31873,13 +31844,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>77</v>
@@ -31904,14 +31875,14 @@
         <v>94</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" t="s" s="2">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="P273" t="s" s="2">
         <v>77</v>
@@ -31980,10 +31951,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -32083,10 +32054,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -32188,10 +32159,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -32231,7 +32202,7 @@
       </c>
       <c r="Q276" s="2"/>
       <c r="R276" t="s" s="2">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="S276" t="s" s="2">
         <v>77</v>
@@ -32293,10 +32264,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -32319,13 +32290,13 @@
         <v>77</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -32396,13 +32367,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D278" t="s" s="2">
         <v>77</v>
@@ -32427,16 +32398,16 @@
         <v>94</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="O278" t="s" s="2">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="P278" t="s" s="2">
         <v>77</v>
@@ -32505,10 +32476,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -32608,10 +32579,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -32713,10 +32684,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -32756,7 +32727,7 @@
       </c>
       <c r="Q281" s="2"/>
       <c r="R281" t="s" s="2">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="S281" t="s" s="2">
         <v>77</v>
@@ -32818,10 +32789,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -32844,16 +32815,16 @@
         <v>77</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" t="s" s="2">
@@ -32923,13 +32894,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D283" t="s" s="2">
         <v>77</v>
@@ -32954,14 +32925,14 @@
         <v>94</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="P283" t="s" s="2">
         <v>77</v>
@@ -33030,10 +33001,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -33133,10 +33104,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -33238,10 +33209,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -33281,7 +33252,7 @@
       </c>
       <c r="Q286" s="2"/>
       <c r="R286" t="s" s="2">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="S286" t="s" s="2">
         <v>77</v>
@@ -33343,10 +33314,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -33369,13 +33340,13 @@
         <v>77</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -33446,13 +33417,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D288" t="s" s="2">
         <v>77</v>
@@ -33477,16 +33448,16 @@
         <v>94</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O288" t="s" s="2">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="P288" t="s" s="2">
         <v>77</v>
@@ -33555,10 +33526,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -33658,10 +33629,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -33763,10 +33734,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -33806,7 +33777,7 @@
       </c>
       <c r="Q291" s="2"/>
       <c r="R291" t="s" s="2">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="S291" t="s" s="2">
         <v>77</v>
@@ -33868,10 +33839,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -33894,16 +33865,16 @@
         <v>77</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
@@ -33973,10 +33944,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -34016,7 +33987,7 @@
       </c>
       <c r="Q293" s="2"/>
       <c r="R293" t="s" s="2">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="S293" t="s" s="2">
         <v>77</v>
@@ -34078,10 +34049,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -34104,13 +34075,13 @@
         <v>77</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
@@ -34181,10 +34152,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -34224,7 +34195,7 @@
       </c>
       <c r="Q295" s="2"/>
       <c r="R295" t="s" s="2">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="S295" t="s" s="2">
         <v>77</v>
@@ -34286,10 +34257,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -34312,13 +34283,13 @@
         <v>77</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
@@ -34389,7 +34360,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>114</v>
@@ -34432,7 +34403,7 @@
       </c>
       <c r="Q297" s="2"/>
       <c r="R297" t="s" s="2">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="S297" t="s" s="2">
         <v>77</v>
@@ -34494,7 +34465,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>123</v>
@@ -34520,13 +34491,13 @@
         <v>77</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
@@ -34597,13 +34568,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D299" t="s" s="2">
         <v>77</v>
@@ -34628,14 +34599,14 @@
         <v>94</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" t="s" s="2">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="P299" t="s" s="2">
         <v>77</v>
@@ -34704,7 +34675,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>106</v>
@@ -34807,7 +34778,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>108</v>
@@ -34818,7 +34789,7 @@
       </c>
       <c r="E301" s="2"/>
       <c r="F301" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G301" t="s" s="2">
         <v>79</v>
@@ -34910,13 +34881,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D302" t="s" s="2">
         <v>77</v>
@@ -34941,14 +34912,14 @@
         <v>94</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="N302" s="2"/>
       <c r="O302" t="s" s="2">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="P302" t="s" s="2">
         <v>77</v>
@@ -35017,10 +34988,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -35120,10 +35091,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -35225,10 +35196,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -35268,7 +35239,7 @@
       </c>
       <c r="Q305" s="2"/>
       <c r="R305" t="s" s="2">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="S305" t="s" s="2">
         <v>77</v>
@@ -35330,10 +35301,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -35359,10 +35330,10 @@
         <v>192</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
@@ -35433,13 +35404,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D307" t="s" s="2">
         <v>77</v>
@@ -35464,14 +35435,14 @@
         <v>94</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" t="s" s="2">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="P307" t="s" s="2">
         <v>77</v>
@@ -35540,10 +35511,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -35643,10 +35614,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -35746,13 +35717,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D310" t="s" s="2">
         <v>77</v>
@@ -35777,14 +35748,14 @@
         <v>94</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N310" s="2"/>
       <c r="O310" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P310" t="s" s="2">
         <v>77</v>
@@ -35853,10 +35824,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -35956,10 +35927,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -36061,13 +36032,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>77</v>
@@ -36092,10 +36063,10 @@
         <v>94</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
@@ -36166,10 +36137,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -36269,10 +36240,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -36374,10 +36345,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -36417,7 +36388,7 @@
       </c>
       <c r="Q316" s="2"/>
       <c r="R316" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S316" t="s" s="2">
         <v>77</v>
@@ -36479,10 +36450,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -36508,13 +36479,13 @@
         <v>87</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" t="s" s="2">
@@ -36522,7 +36493,7 @@
       </c>
       <c r="Q317" s="2"/>
       <c r="R317" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="S317" t="s" s="2">
         <v>77</v>
@@ -36584,10 +36555,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -36687,13 +36658,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D319" t="s" s="2">
         <v>77</v>
@@ -36718,14 +36689,14 @@
         <v>94</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P319" t="s" s="2">
         <v>77</v>
@@ -36794,10 +36765,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -36897,10 +36868,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -37002,10 +36973,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -37045,7 +37016,7 @@
       </c>
       <c r="Q322" s="2"/>
       <c r="R322" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S322" t="s" s="2">
         <v>77</v>
@@ -37107,10 +37078,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -37136,10 +37107,10 @@
         <v>192</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
@@ -37210,13 +37181,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D324" t="s" s="2">
         <v>77</v>
@@ -37241,14 +37212,14 @@
         <v>94</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P324" t="s" s="2">
         <v>77</v>
@@ -37317,10 +37288,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -37420,10 +37391,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -37525,10 +37496,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -37568,7 +37539,7 @@
       </c>
       <c r="Q327" s="2"/>
       <c r="R327" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="S327" t="s" s="2">
         <v>77</v>
@@ -37630,10 +37601,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -37656,13 +37627,13 @@
         <v>77</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
@@ -37733,10 +37704,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -37776,7 +37747,7 @@
       </c>
       <c r="Q329" s="2"/>
       <c r="R329" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="S329" t="s" s="2">
         <v>77</v>
@@ -37838,10 +37809,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -37864,13 +37835,13 @@
         <v>77</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
@@ -37941,13 +37912,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D331" t="s" s="2">
         <v>77</v>
@@ -37972,16 +37943,16 @@
         <v>94</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P331" t="s" s="2">
         <v>77</v>
@@ -38050,10 +38021,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -38153,10 +38124,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -38258,13 +38229,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D334" t="s" s="2">
         <v>77</v>
@@ -38289,10 +38260,10 @@
         <v>94</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
@@ -38363,10 +38334,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -38466,10 +38437,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -38571,10 +38542,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -38614,7 +38585,7 @@
       </c>
       <c r="Q337" s="2"/>
       <c r="R337" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S337" t="s" s="2">
         <v>77</v>
@@ -38676,10 +38647,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -38705,13 +38676,13 @@
         <v>87</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="O338" s="2"/>
       <c r="P338" t="s" s="2">
@@ -38719,7 +38690,7 @@
       </c>
       <c r="Q338" s="2"/>
       <c r="R338" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="S338" t="s" s="2">
         <v>77</v>
@@ -38781,10 +38752,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -38884,13 +38855,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D340" t="s" s="2">
         <v>77</v>
@@ -38915,16 +38886,16 @@
         <v>94</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P340" t="s" s="2">
         <v>77</v>
@@ -38993,10 +38964,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -39096,10 +39067,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -39201,10 +39172,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -39244,7 +39215,7 @@
       </c>
       <c r="Q343" s="2"/>
       <c r="R343" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="S343" t="s" s="2">
         <v>77</v>
@@ -39306,10 +39277,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -39332,16 +39303,16 @@
         <v>77</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O344" s="2"/>
       <c r="P344" t="s" s="2">
@@ -39411,13 +39382,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D345" t="s" s="2">
         <v>77</v>
@@ -39442,16 +39413,16 @@
         <v>94</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P345" t="s" s="2">
         <v>77</v>
@@ -39520,10 +39491,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
@@ -39623,10 +39594,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -39728,10 +39699,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -39771,7 +39742,7 @@
       </c>
       <c r="Q348" s="2"/>
       <c r="R348" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="S348" t="s" s="2">
         <v>77</v>
@@ -39833,10 +39804,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -39859,16 +39830,16 @@
         <v>77</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" t="s" s="2">
@@ -39938,13 +39909,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D350" t="s" s="2">
         <v>77</v>
@@ -39969,14 +39940,14 @@
         <v>94</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N350" s="2"/>
       <c r="O350" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P350" t="s" s="2">
         <v>77</v>
@@ -40045,10 +40016,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -40148,10 +40119,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -40253,10 +40224,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" t="s" s="2">
@@ -40296,7 +40267,7 @@
       </c>
       <c r="Q353" s="2"/>
       <c r="R353" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S353" t="s" s="2">
         <v>77</v>
@@ -40358,10 +40329,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" t="s" s="2">
@@ -40384,13 +40355,13 @@
         <v>77</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
@@ -40461,10 +40432,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s" s="2">
@@ -40504,7 +40475,7 @@
       </c>
       <c r="Q355" s="2"/>
       <c r="R355" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S355" t="s" s="2">
         <v>77</v>
@@ -40566,10 +40537,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s" s="2">
@@ -40592,13 +40563,13 @@
         <v>77</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
@@ -40669,13 +40640,13 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D357" t="s" s="2">
         <v>77</v>
@@ -40700,14 +40671,14 @@
         <v>94</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="N357" s="2"/>
       <c r="O357" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="P357" t="s" s="2">
         <v>77</v>
@@ -40776,10 +40747,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" t="s" s="2">
@@ -40879,10 +40850,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
@@ -40984,13 +40955,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D360" t="s" s="2">
         <v>77</v>
@@ -41015,10 +40986,10 @@
         <v>94</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
@@ -41089,10 +41060,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" t="s" s="2">
@@ -41192,10 +41163,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" t="s" s="2">
@@ -41297,10 +41268,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" t="s" s="2">
@@ -41340,7 +41311,7 @@
       </c>
       <c r="Q363" s="2"/>
       <c r="R363" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S363" t="s" s="2">
         <v>77</v>
@@ -41402,10 +41373,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" t="s" s="2">
@@ -41431,13 +41402,13 @@
         <v>87</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="O364" s="2"/>
       <c r="P364" t="s" s="2">
@@ -41445,7 +41416,7 @@
       </c>
       <c r="Q364" s="2"/>
       <c r="R364" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="S364" t="s" s="2">
         <v>77</v>
@@ -41507,10 +41478,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" t="s" s="2">
@@ -41610,13 +41581,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D366" t="s" s="2">
         <v>77</v>
@@ -41641,14 +41612,14 @@
         <v>94</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="N366" s="2"/>
       <c r="O366" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P366" t="s" s="2">
         <v>77</v>
@@ -41717,10 +41688,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" t="s" s="2">
@@ -41820,10 +41791,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" t="s" s="2">
@@ -41923,13 +41894,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
@@ -41954,14 +41925,14 @@
         <v>94</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="N369" s="2"/>
       <c r="O369" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="P369" t="s" s="2">
         <v>77</v>
@@ -42030,10 +42001,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" t="s" s="2">
@@ -42133,10 +42104,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" t="s" s="2">
@@ -42238,10 +42209,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" t="s" s="2">
@@ -42281,7 +42252,7 @@
       </c>
       <c r="Q372" s="2"/>
       <c r="R372" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="S372" t="s" s="2">
         <v>77</v>
@@ -42343,10 +42314,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" t="s" s="2">
@@ -42372,10 +42343,10 @@
         <v>180</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
@@ -42402,13 +42373,13 @@
         <v>77</v>
       </c>
       <c r="X373" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Y373" t="s" s="2">
-        <v>594</v>
+        <v>77</v>
       </c>
       <c r="Z373" t="s" s="2">
-        <v>595</v>
+        <v>77</v>
       </c>
       <c r="AA373" t="s" s="2">
         <v>77</v>
@@ -42446,13 +42417,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D374" t="s" s="2">
         <v>77</v>
@@ -42477,14 +42448,14 @@
         <v>94</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="N374" s="2"/>
       <c r="O374" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="P374" t="s" s="2">
         <v>77</v>
@@ -42553,10 +42524,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
@@ -42656,10 +42627,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" t="s" s="2">
@@ -42761,10 +42732,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" t="s" s="2">
@@ -42804,7 +42775,7 @@
       </c>
       <c r="Q377" s="2"/>
       <c r="R377" t="s" s="2">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="S377" t="s" s="2">
         <v>77</v>
@@ -42866,10 +42837,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" t="s" s="2">
@@ -42892,13 +42863,13 @@
         <v>77</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="N378" s="2"/>
       <c r="O378" s="2"/>
@@ -42969,13 +42940,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D379" t="s" s="2">
         <v>77</v>
@@ -43000,16 +42971,16 @@
         <v>94</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O379" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="P379" t="s" s="2">
         <v>77</v>
@@ -43078,10 +43049,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" t="s" s="2">
@@ -43181,10 +43152,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" t="s" s="2">
@@ -43286,10 +43257,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" t="s" s="2">
@@ -43329,7 +43300,7 @@
       </c>
       <c r="Q382" s="2"/>
       <c r="R382" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="S382" t="s" s="2">
         <v>77</v>
@@ -43391,10 +43362,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
@@ -43417,16 +43388,16 @@
         <v>77</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" t="s" s="2">
@@ -43496,13 +43467,13 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D384" t="s" s="2">
         <v>77</v>
@@ -43527,16 +43498,16 @@
         <v>94</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="P384" t="s" s="2">
         <v>77</v>
@@ -43605,10 +43576,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" t="s" s="2">
@@ -43708,10 +43679,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" t="s" s="2">
@@ -43813,10 +43784,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" t="s" s="2">
@@ -43856,7 +43827,7 @@
       </c>
       <c r="Q387" s="2"/>
       <c r="R387" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="S387" t="s" s="2">
         <v>77</v>
@@ -43918,10 +43889,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" t="s" s="2">
@@ -43944,16 +43915,16 @@
         <v>77</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="N388" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="O388" s="2"/>
       <c r="P388" t="s" s="2">
@@ -44023,10 +43994,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" t="s" s="2">
@@ -44066,7 +44037,7 @@
       </c>
       <c r="Q389" s="2"/>
       <c r="R389" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="S389" t="s" s="2">
         <v>77</v>
@@ -44128,10 +44099,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" t="s" s="2">
@@ -44154,13 +44125,13 @@
         <v>77</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N390" s="2"/>
       <c r="O390" s="2"/>
@@ -44231,13 +44202,13 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D391" t="s" s="2">
         <v>77</v>
@@ -44262,14 +44233,14 @@
         <v>94</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="N391" s="2"/>
       <c r="O391" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P391" t="s" s="2">
         <v>77</v>
@@ -44338,10 +44309,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" t="s" s="2">
@@ -44441,10 +44412,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" t="s" s="2">
@@ -44544,13 +44515,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D394" t="s" s="2">
         <v>77</v>
@@ -44575,16 +44546,16 @@
         <v>94</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="O394" t="s" s="2">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="P394" t="s" s="2">
         <v>77</v>
@@ -44653,10 +44624,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" t="s" s="2">
@@ -44756,10 +44727,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" t="s" s="2">
@@ -44861,10 +44832,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" t="s" s="2">
@@ -44904,7 +44875,7 @@
       </c>
       <c r="Q397" s="2"/>
       <c r="R397" t="s" s="2">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="S397" t="s" s="2">
         <v>77</v>
@@ -44966,10 +44937,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" t="s" s="2">
@@ -44995,13 +44966,13 @@
         <v>87</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="O398" s="2"/>
       <c r="P398" t="s" s="2">
@@ -45071,13 +45042,13 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="D399" t="s" s="2">
         <v>77</v>
@@ -45102,14 +45073,14 @@
         <v>94</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="N399" s="2"/>
       <c r="O399" t="s" s="2">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="P399" t="s" s="2">
         <v>77</v>
@@ -45178,10 +45149,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" t="s" s="2">
@@ -45281,10 +45252,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" t="s" s="2">
@@ -45386,10 +45357,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" t="s" s="2">
@@ -45429,7 +45400,7 @@
       </c>
       <c r="Q402" s="2"/>
       <c r="R402" t="s" s="2">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="S402" t="s" s="2">
         <v>77</v>
@@ -45491,10 +45462,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" t="s" s="2">
@@ -45517,13 +45488,13 @@
         <v>77</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="N403" s="2"/>
       <c r="O403" s="2"/>
@@ -45594,10 +45565,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" t="s" s="2">
@@ -45637,7 +45608,7 @@
       </c>
       <c r="Q404" s="2"/>
       <c r="R404" t="s" s="2">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="S404" t="s" s="2">
         <v>77</v>
@@ -45699,10 +45670,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" t="s" s="2">
@@ -45725,13 +45696,13 @@
         <v>77</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
@@ -45802,10 +45773,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" t="s" s="2">
@@ -45845,7 +45816,7 @@
       </c>
       <c r="Q406" s="2"/>
       <c r="R406" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="S406" t="s" s="2">
         <v>77</v>
@@ -45907,10 +45878,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
@@ -45933,13 +45904,13 @@
         <v>77</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
@@ -46010,13 +45981,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D408" t="s" s="2">
         <v>77</v>
@@ -46041,16 +46012,16 @@
         <v>94</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="O408" t="s" s="2">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="P408" t="s" s="2">
         <v>77</v>
@@ -46119,10 +46090,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" t="s" s="2">
@@ -46222,10 +46193,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" t="s" s="2">
@@ -46327,13 +46298,13 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D411" t="s" s="2">
         <v>77</v>
@@ -46358,10 +46329,10 @@
         <v>94</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="N411" s="2"/>
       <c r="O411" s="2"/>
@@ -46432,10 +46403,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" t="s" s="2">
@@ -46535,10 +46506,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" t="s" s="2">
@@ -46640,10 +46611,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" t="s" s="2">
@@ -46683,7 +46654,7 @@
       </c>
       <c r="Q414" s="2"/>
       <c r="R414" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S414" t="s" s="2">
         <v>77</v>
@@ -46745,10 +46716,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" t="s" s="2">
@@ -46774,13 +46745,13 @@
         <v>87</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" t="s" s="2">
@@ -46788,7 +46759,7 @@
       </c>
       <c r="Q415" s="2"/>
       <c r="R415" t="s" s="2">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="S415" t="s" s="2">
         <v>77</v>
@@ -46850,10 +46821,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" t="s" s="2">
@@ -46953,13 +46924,13 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>77</v>
@@ -46984,16 +46955,16 @@
         <v>94</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="O417" t="s" s="2">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="P417" t="s" s="2">
         <v>77</v>
@@ -47062,10 +47033,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" t="s" s="2">
@@ -47165,10 +47136,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" t="s" s="2">
@@ -47270,10 +47241,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" t="s" s="2">
@@ -47313,7 +47284,7 @@
       </c>
       <c r="Q420" s="2"/>
       <c r="R420" t="s" s="2">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="S420" t="s" s="2">
         <v>77</v>
@@ -47375,10 +47346,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" t="s" s="2">
@@ -47404,13 +47375,13 @@
         <v>192</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="O421" s="2"/>
       <c r="P421" t="s" s="2">
@@ -47436,13 +47407,13 @@
         <v>77</v>
       </c>
       <c r="X421" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Y421" t="s" s="2">
-        <v>594</v>
+        <v>77</v>
       </c>
       <c r="Z421" t="s" s="2">
-        <v>692</v>
+        <v>77</v>
       </c>
       <c r="AA421" t="s" s="2">
         <v>77</v>
@@ -47480,13 +47451,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D422" t="s" s="2">
         <v>77</v>
@@ -47511,16 +47482,16 @@
         <v>94</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="O422" t="s" s="2">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="P422" t="s" s="2">
         <v>77</v>
@@ -47589,10 +47560,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
@@ -47692,10 +47663,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" t="s" s="2">
@@ -47797,10 +47768,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" t="s" s="2">
@@ -47840,7 +47811,7 @@
       </c>
       <c r="Q425" s="2"/>
       <c r="R425" t="s" s="2">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="S425" t="s" s="2">
         <v>77</v>
@@ -47902,10 +47873,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" t="s" s="2">
@@ -47928,16 +47899,16 @@
         <v>77</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="O426" s="2"/>
       <c r="P426" t="s" s="2">
@@ -48007,13 +47978,13 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D427" t="s" s="2">
         <v>77</v>
@@ -48038,14 +48009,14 @@
         <v>94</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="N427" s="2"/>
       <c r="O427" t="s" s="2">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="P427" t="s" s="2">
         <v>77</v>
@@ -48114,10 +48085,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" t="s" s="2">
@@ -48217,10 +48188,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" t="s" s="2">
@@ -48322,10 +48293,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" t="s" s="2">
@@ -48365,7 +48336,7 @@
       </c>
       <c r="Q430" s="2"/>
       <c r="R430" t="s" s="2">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="S430" t="s" s="2">
         <v>77</v>
@@ -48427,10 +48398,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" t="s" s="2">
@@ -48453,13 +48424,13 @@
         <v>77</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
@@ -48530,13 +48501,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D432" t="s" s="2">
         <v>77</v>
@@ -48561,16 +48532,16 @@
         <v>94</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="O432" t="s" s="2">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="P432" t="s" s="2">
         <v>77</v>
@@ -48639,10 +48610,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" t="s" s="2">
@@ -48742,10 +48713,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" t="s" s="2">
@@ -48847,10 +48818,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" t="s" s="2">
@@ -48890,7 +48861,7 @@
       </c>
       <c r="Q435" s="2"/>
       <c r="R435" t="s" s="2">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="S435" t="s" s="2">
         <v>77</v>
@@ -48952,10 +48923,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" t="s" s="2">
@@ -48978,16 +48949,16 @@
         <v>77</v>
       </c>
       <c r="K436" t="s" s="2">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="O436" s="2"/>
       <c r="P436" t="s" s="2">
@@ -49057,13 +49028,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D437" t="s" s="2">
         <v>77</v>
@@ -49088,14 +49059,14 @@
         <v>94</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="N437" s="2"/>
       <c r="O437" t="s" s="2">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="P437" t="s" s="2">
         <v>77</v>
@@ -49164,10 +49135,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" t="s" s="2">
@@ -49267,10 +49238,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
@@ -49372,10 +49343,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" t="s" s="2">
@@ -49415,7 +49386,7 @@
       </c>
       <c r="Q440" s="2"/>
       <c r="R440" t="s" s="2">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="S440" t="s" s="2">
         <v>77</v>
@@ -49477,10 +49448,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" t="s" s="2">
@@ -49503,13 +49474,13 @@
         <v>77</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
@@ -49580,13 +49551,13 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D442" t="s" s="2">
         <v>77</v>
@@ -49611,16 +49582,16 @@
         <v>94</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O442" t="s" s="2">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="P442" t="s" s="2">
         <v>77</v>
@@ -49689,10 +49660,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" t="s" s="2">
@@ -49792,10 +49763,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" t="s" s="2">
@@ -49897,10 +49868,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" t="s" s="2">
@@ -49940,7 +49911,7 @@
       </c>
       <c r="Q445" s="2"/>
       <c r="R445" t="s" s="2">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="S445" t="s" s="2">
         <v>77</v>
@@ -50002,10 +49973,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" t="s" s="2">
@@ -50028,16 +49999,16 @@
         <v>77</v>
       </c>
       <c r="K446" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O446" s="2"/>
       <c r="P446" t="s" s="2">
@@ -50107,10 +50078,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" t="s" s="2">
@@ -50150,7 +50121,7 @@
       </c>
       <c r="Q447" s="2"/>
       <c r="R447" t="s" s="2">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="S447" t="s" s="2">
         <v>77</v>
@@ -50212,10 +50183,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" t="s" s="2">
@@ -50238,13 +50209,13 @@
         <v>77</v>
       </c>
       <c r="K448" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
@@ -50315,10 +50286,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" t="s" s="2">
@@ -50358,7 +50329,7 @@
       </c>
       <c r="Q449" s="2"/>
       <c r="R449" t="s" s="2">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="S449" t="s" s="2">
         <v>77</v>
@@ -50420,10 +50391,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" t="s" s="2">
@@ -50446,13 +50417,13 @@
         <v>77</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
@@ -50523,7 +50494,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>114</v>
@@ -50566,7 +50537,7 @@
       </c>
       <c r="Q451" s="2"/>
       <c r="R451" t="s" s="2">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="S451" t="s" s="2">
         <v>77</v>
@@ -50628,7 +50599,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>123</v>
@@ -50654,13 +50625,13 @@
         <v>77</v>
       </c>
       <c r="K452" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
@@ -50731,13 +50702,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="D453" t="s" s="2">
         <v>77</v>
@@ -50762,14 +50733,14 @@
         <v>94</v>
       </c>
       <c r="L453" t="s" s="2">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="N453" s="2"/>
       <c r="O453" t="s" s="2">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="P453" t="s" s="2">
         <v>77</v>
@@ -50838,7 +50809,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>106</v>
@@ -50941,7 +50912,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>108</v>
@@ -51046,7 +51017,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>114</v>
@@ -51089,7 +51060,7 @@
       </c>
       <c r="Q456" s="2"/>
       <c r="R456" t="s" s="2">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="S456" t="s" s="2">
         <v>77</v>
@@ -51151,7 +51122,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>123</v>
@@ -51177,13 +51148,13 @@
         <v>77</v>
       </c>
       <c r="K457" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
@@ -51254,13 +51225,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="D458" t="s" s="2">
         <v>77</v>
@@ -51285,14 +51256,14 @@
         <v>94</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="N458" s="2"/>
       <c r="O458" t="s" s="2">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="P458" t="s" s="2">
         <v>77</v>
@@ -51361,7 +51332,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>106</v>
@@ -51464,7 +51435,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>108</v>
@@ -51569,7 +51540,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>114</v>
@@ -51612,7 +51583,7 @@
       </c>
       <c r="Q461" s="2"/>
       <c r="R461" t="s" s="2">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="S461" t="s" s="2">
         <v>77</v>
@@ -51674,7 +51645,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>123</v>
@@ -51700,13 +51671,13 @@
         <v>77</v>
       </c>
       <c r="K462" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
@@ -51777,13 +51748,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D463" t="s" s="2">
         <v>77</v>
@@ -51808,16 +51779,16 @@
         <v>94</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="P463" t="s" s="2">
         <v>77</v>
@@ -51886,7 +51857,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>106</v>
@@ -51989,7 +51960,7 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>108</v>
@@ -52092,13 +52063,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D466" t="s" s="2">
         <v>77</v>
@@ -52123,10 +52094,10 @@
         <v>94</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
@@ -52197,10 +52168,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" t="s" s="2">
@@ -52300,10 +52271,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" t="s" s="2">
@@ -52405,10 +52376,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" t="s" s="2">
@@ -52448,7 +52419,7 @@
       </c>
       <c r="Q469" s="2"/>
       <c r="R469" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="S469" t="s" s="2">
         <v>77</v>
@@ -52510,10 +52481,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" t="s" s="2">
@@ -52539,13 +52510,13 @@
         <v>87</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" t="s" s="2">
@@ -52553,7 +52524,7 @@
       </c>
       <c r="Q470" s="2"/>
       <c r="R470" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="S470" t="s" s="2">
         <v>77</v>
@@ -52615,13 +52586,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D471" t="s" s="2">
         <v>77</v>
@@ -52646,14 +52617,14 @@
         <v>94</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N471" s="2"/>
       <c r="O471" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P471" t="s" s="2">
         <v>77</v>
@@ -52722,10 +52693,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" t="s" s="2">
@@ -52825,10 +52796,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" t="s" s="2">
@@ -52930,10 +52901,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" t="s" s="2">
@@ -52973,7 +52944,7 @@
       </c>
       <c r="Q474" s="2"/>
       <c r="R474" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="S474" t="s" s="2">
         <v>77</v>
@@ -53035,10 +53006,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" t="s" s="2">
@@ -53064,10 +53035,10 @@
         <v>192</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N475" s="2"/>
       <c r="O475" s="2"/>
@@ -53138,13 +53109,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D476" t="s" s="2">
         <v>77</v>
@@ -53169,14 +53140,14 @@
         <v>94</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N476" s="2"/>
       <c r="O476" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P476" t="s" s="2">
         <v>77</v>
@@ -53245,10 +53216,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" t="s" s="2">
@@ -53348,10 +53319,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" t="s" s="2">
@@ -53453,10 +53424,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" t="s" s="2">
@@ -53496,7 +53467,7 @@
       </c>
       <c r="Q479" s="2"/>
       <c r="R479" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="S479" t="s" s="2">
         <v>77</v>
@@ -53558,10 +53529,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" t="s" s="2">
@@ -53587,10 +53558,10 @@
         <v>146</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M480" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N480" s="2"/>
       <c r="O480" s="2"/>
@@ -53661,7 +53632,7 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>114</v>
@@ -53704,7 +53675,7 @@
       </c>
       <c r="Q481" s="2"/>
       <c r="R481" t="s" s="2">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="S481" t="s" s="2">
         <v>77</v>
@@ -53766,7 +53737,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>123</v>
@@ -53792,13 +53763,13 @@
         <v>77</v>
       </c>
       <c r="K482" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L482" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N482" s="2"/>
       <c r="O482" s="2"/>
@@ -53869,13 +53840,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="D483" t="s" s="2">
         <v>77</v>
@@ -53900,14 +53871,14 @@
         <v>94</v>
       </c>
       <c r="L483" t="s" s="2">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="N483" s="2"/>
       <c r="O483" t="s" s="2">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="P483" t="s" s="2">
         <v>77</v>
@@ -53976,7 +53947,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>106</v>
@@ -54079,7 +54050,7 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>108</v>
@@ -54184,7 +54155,7 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>114</v>
@@ -54227,7 +54198,7 @@
       </c>
       <c r="Q486" s="2"/>
       <c r="R486" t="s" s="2">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="S486" t="s" s="2">
         <v>77</v>
@@ -54289,7 +54260,7 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>123</v>
@@ -54318,10 +54289,10 @@
         <v>169</v>
       </c>
       <c r="L487" t="s" s="2">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
@@ -54523,13 +54494,13 @@
         <v>77</v>
       </c>
       <c r="K489" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L489" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M489" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="N489" s="2"/>
       <c r="O489" s="2"/>
